--- a/src/test/data/inputs/multijoin.xlsx
+++ b/src/test/data/inputs/multijoin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18240" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18240" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bean-sample1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="59">
   <si>
     <t>クラス日本語名</t>
     <rPh sb="3" eb="6">
@@ -174,13 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイルパス</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -297,6 +290,34 @@
     <t>シート間の結合(結合先)</t>
     <rPh sb="10" eb="11">
       <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数1</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数2</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数3</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数4</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -367,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -441,30 +462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
@@ -483,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,7 +502,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,13 +524,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +843,7 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -864,7 +855,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -876,7 +867,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -888,7 +879,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -896,11 +887,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -994,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -1046,7 +1037,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="E5" sqref="E5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,9 +1046,8 @@
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1066,7 +1056,7 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1080,7 +1070,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1090,11 +1080,11 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1126,24 +1116,30 @@
         <v>26</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1152,29 +1148,29 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -1183,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1192,16 +1188,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1210,7 +1206,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -1219,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1228,7 +1224,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -1237,10 +1233,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1248,7 +1244,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -1257,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1265,8 +1261,7 @@
       <c r="H12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E5:H5"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:B2"/>
@@ -1304,7 +1299,7 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1316,7 +1311,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1328,7 +1323,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1340,7 +1335,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1348,11 +1343,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1446,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -1497,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1507,9 +1502,8 @@
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1518,7 +1512,7 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1532,7 +1526,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1542,11 +1536,11 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1578,11 +1572,17 @@
         <v>26</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -1613,20 +1613,20 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -1635,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1644,16 +1644,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -1671,7 +1671,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -1689,10 +1689,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -1709,7 +1709,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1717,8 +1717,7 @@
       <c r="H12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E5:H5"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:B2"/>
@@ -1756,7 +1755,7 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1768,7 +1767,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1780,7 +1779,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1792,7 +1791,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1800,11 +1799,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1898,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -1950,7 +1949,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="E4" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1959,9 +1958,8 @@
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1970,7 +1968,7 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1984,7 +1982,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1994,11 +1992,11 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2030,11 +2028,17 @@
         <v>26</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
@@ -2047,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2056,7 +2060,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -2065,20 +2069,20 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -2087,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2096,16 +2100,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2114,7 +2118,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -2123,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2132,7 +2136,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2141,10 +2145,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2152,7 +2156,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -2161,7 +2165,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2169,8 +2173,7 @@
       <c r="H12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E5:H5"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:B2"/>
